--- a/Data/DatabaseIndividualPricingInputFormat v2.xlsx
+++ b/Data/DatabaseIndividualPricingInputFormat v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25525"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redbrickza.sharepoint.com/sites/Empores/Shared Documents/NovaPower/Web Pricing Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redbrickza-my.sharepoint.com/personal/ezekiel_mokaedi_rbconsult_co_za/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{1A61F79C-627C-4E16-B2D7-902F4270E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AC00938-1258-4476-A146-BE8CC2190F52}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{397845D5-7D5E-44ED-BEA3-9292ED887155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E9067E-F322-402D-A8BB-D84881B41F77}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A38C0819-823B-4194-AA2B-5033FF66305C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A38C0819-823B-4194-AA2B-5033FF66305C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="RBCPriceGenerator" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$G$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Packages!$A$1:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="186">
   <si>
     <t>ItemName</t>
   </si>
@@ -64,7 +64,10 @@
     <t>Extras</t>
   </si>
   <si>
-    <t>Img Url</t>
+    <t>img_url</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Battery</t>
@@ -73,45 +76,336 @@
     <t>Batteries</t>
   </si>
   <si>
+    <t>PylonTech</t>
+  </si>
+  <si>
+    <t>Lithium-ion</t>
+  </si>
+  <si>
+    <t>Voltage-V:48, Energy-kWh:4.8</t>
+  </si>
+  <si>
+    <t>SizeGroup:2,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/d4qY5Xw/pylontech-up5000-48kwh-li-ion-solar-battery-48v.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/w0xBfmN/Des-Pylon4-8-R26k.png</t>
+  </si>
+  <si>
+    <t>Dyness</t>
+  </si>
+  <si>
+    <t>Voltage-V:48, Energy-kWh:3.6</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/7khSK4T/dyness3-6-PIC.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/T4qGcHB/Des-Dyness3-6-R21-7k.png</t>
+  </si>
+  <si>
+    <t>Voltage-V:48, Energy-kWh:3.5</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/qJ5TSwq/pylontech-us3000c-35kwh-48v-lithium-li-ion-solar-battery-excl-brackets.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/SJvBzmH/Pylon3-5-R20-8k.png </t>
+  </si>
+  <si>
+    <t>Voltage-V:48, Energy-kWh:2.4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/rbySsp5/pylontech-us2000c-24kwh-li-ion-solar-battery-excl-brackets.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/JsbPyfw/Des-Pylon2-4-R13-5k.png</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Renewsys</t>
+  </si>
+  <si>
+    <t>Polycrystalline</t>
+  </si>
+  <si>
+    <t>Voltage-V:37.9, Power-W:335, MaxPowerCurrent-A:8.85, OpenCircuitVoltage-V:46.27</t>
+  </si>
+  <si>
+    <t>SizeGroup:4,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/WzLC5hG/Renews335-W.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/nj9Kyt4/Des-ORSpec-Renew335-W.png</t>
+  </si>
+  <si>
+    <t>CNBM</t>
+  </si>
+  <si>
+    <t>Voltage-V:37.5, Power-W:330, MaxPowerCurrent-A:8.89, OpenCircuitVoltage-V:47</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1T0J9SH/CNBM330W.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/DYHHyxB/Des-CNBM330-W.png</t>
+  </si>
+  <si>
+    <t>Canadian Solar</t>
+  </si>
+  <si>
+    <t>Monocrystalline</t>
+  </si>
+  <si>
+    <t>Voltage-V:34.09, Power-W:375, MaxPowerCurrent-A:10.94, OpenCircuitVoltage-V:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/3c8F2rL/Canadian375-W.png </t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/H2nDJ1J/Des-ORSpec-Canadian375-W.png</t>
+  </si>
+  <si>
+    <t>Axitec</t>
+  </si>
+  <si>
+    <t>Voltage-V:34.09, Power-W:370, MaxPowerCurrent-A:10.86, OpenCircuitVoltage-V:41.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/9sXfd3v/Axitec370-W.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/zxCRs8d/Des-ORSpec-Axitec370-W.png </t>
+  </si>
+  <si>
+    <t>JA Solar</t>
+  </si>
+  <si>
+    <t>Voltage-V:33.96, Power-W:365, MaxPowerCurrent-A:10.75, OpenCircuitVoltage-V:41.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/Xz8F2nW/JA365W.png </t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/18Qsj9V/Des-JA365-W.png</t>
+  </si>
+  <si>
+    <t>Voltage-V:33.9, Power-W:365, MaxPowerCurrent-A:10.78, OpenCircuitVoltage-V:40.6</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/WkDkWzm/Canadian365-W.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/dMZ7ZNj/Des-ORSpec-Canadian365-W.png</t>
+  </si>
+  <si>
+    <t>Rentech</t>
+  </si>
+  <si>
+    <t>Voltage-V:25.6, Energy-kWh:2.56, RechargeVoltage-V:27.6, Capacity-Ah:100</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Nn2DvZq/Rentech2-56-R18-9k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Wtsvp7P/Des-Rentech2-56-R18-9.png</t>
+  </si>
+  <si>
+    <t>Hubble</t>
+  </si>
+  <si>
+    <t>Voltage-V:12, Energy-kWh:1.5, DischargeVoltage-V:11, Capacity-Ah:120</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/X8942Bf/Hubble1-5-R8-0k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/gR0fQzG/Hubble1-5-R8-0k.png</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Ryobi</t>
+  </si>
+  <si>
+    <t>Key-Start</t>
+  </si>
+  <si>
+    <t>Size-kVA:7.5, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/42kmFyg/Petrol7-5k-VA-R14-9k.jpg</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>GenTech Industries</t>
+  </si>
+  <si>
+    <t>Size-kVA:7, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/MPzRSq3/Diesel7k-VA-R27-6.png</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>Inverters</t>
+  </si>
+  <si>
+    <t>Rentech-Axpert</t>
+  </si>
+  <si>
+    <t>Stand-alone</t>
+  </si>
+  <si>
+    <t>Size-kVA:5.6, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5.6, BatVoltage-V:48</t>
+  </si>
+  <si>
+    <t>SizeGroup:5,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/FK0ty82/Tentech5-6k-VA-R17-4.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/rG3Z1KZ/Des-Rentech5-6k-VA-R17-4.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:5.5, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3SNsR9N/Petrol5-5k-VA-R13-8.jpg</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Size-kVA:5,InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5, BatVoltage-V:48, MPPTCurrent-A:80</t>
+  </si>
+  <si>
+    <t>SizeGroup:6,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Y0KkM3P/RCT-Axpert5k-VA-R15-7k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/BGWST2R/Des-Rentech-Axpert5k-VA-R15-7.png</t>
+  </si>
+  <si>
+    <t>Mecer</t>
+  </si>
+  <si>
+    <t>Size-kVA:5, Voltage-V:48, Power-kW:4</t>
+  </si>
+  <si>
+    <t>SizeGroup:3,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/31W0tKZ/Mecer5k-VA-R12-8k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/WHbWBfr/Des-Mecer5k-VA-R12-8.png</t>
+  </si>
+  <si>
+    <t>TheCoolGuys</t>
+  </si>
+  <si>
+    <t>Size-kVA:5, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5, BatVoltage-V:48, MPPTVoltage-VDC:115</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/cNq40GD/TCG5k-VA-R16-1k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SwJ5vSF/Des-TCG5k-VA-R16-1.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:3.5, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4p6Tjxs/Petrol3-5-KVA-R8-0k.png</t>
+  </si>
+  <si>
+    <t>RCT-AXPERT</t>
+  </si>
+  <si>
+    <t>Size-kVA:3, Voltage-V:48, Power-kW:3, MPPTVoltage-V:430</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/n1CmNTS/RCT-Axpert3k-VA-R10-4k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/wrF2yST/Spec-ORDes-RCT-AXPERT3k-VA-R10-4.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:3, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:2.4, BatVoltage-V:24, MPPTVoltage-VDC:100</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/t25SQL4/TCG3kva-R8-6-K.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zPN6ykP/Des-TCG3k-VA-R8-6.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:3, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SrqNKTT/Diesel3k-VA-R17-2.png</t>
+  </si>
+  <si>
+    <t>Rentech-Jagular</t>
+  </si>
+  <si>
+    <t>Size-kVA:2.4, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:1.4, RecLABatVoltage-V:12</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/6r0kNwc/Rentech-Jag2-4k-VA-R4-4k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/MC08H1B/Des-Rentec-Jag2-4k-VA-R4-4k.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:10, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/b16FBDs/Petrol10k-VA-65-6.jpg</t>
+  </si>
+  <si>
+    <t>Pull-Start</t>
+  </si>
+  <si>
+    <t>Size-kVA:1.2, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VTVCC5V/Petrol1-2k-VA-R5-1k.png</t>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+  </si>
+  <si>
     <t>MaxLi</t>
   </si>
   <si>
-    <t>Lithium-ion</t>
-  </si>
-  <si>
     <t>Voltage-V:12, Energy-kWh:1.2</t>
   </si>
   <si>
-    <t>SizeGroup:2,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
-    <t>Hubble</t>
-  </si>
-  <si>
     <t>Voltage-V:12, Energy-kWh:1.5</t>
   </si>
   <si>
-    <t>Dyness</t>
-  </si>
-  <si>
-    <t>Voltage-V:48, Energy-kWh:2.4</t>
-  </si>
-  <si>
-    <t>PylonTech</t>
-  </si>
-  <si>
-    <t>Voltage-V:48, Energy-kWh:3.5</t>
-  </si>
-  <si>
-    <t>Voltage-V:48, Energy-kWh:3.6</t>
-  </si>
-  <si>
     <t>Fusion</t>
   </si>
   <si>
-    <t>Voltage-V:48, Energy-kWh:4.8</t>
-  </si>
-  <si>
     <t>Forbatt</t>
   </si>
   <si>
@@ -136,79 +430,46 @@
     <t>Voltage-V:48, Energy-kWh:3.5, DischargeVoltage-V:53.5, ChargeVoltage-V:53.5</t>
   </si>
   <si>
-    <t>SizeGroup:4,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
     <t>RCT</t>
   </si>
   <si>
     <t>Voltage-V:12, Energy-kWh:2.4, Capacity-Ah:200</t>
   </si>
   <si>
-    <t>Voltage-V:12, Energy-kWh:1.5, DischargeVoltage-V:11, Capacity-Ah:120</t>
-  </si>
-  <si>
-    <t>Rentech</t>
-  </si>
-  <si>
-    <t>Voltage-V:25.6, Energy-kWh:2.56, RechargeVoltage-V:27.6, Capacity-Ah:100</t>
-  </si>
-  <si>
     <t>Voltage-V:25.6, Energy-kWh:5.12, RechargeVoltage-V:27.6, Capacity-Ah:200</t>
   </si>
   <si>
-    <t>Generator</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>Ryobi</t>
-  </si>
-  <si>
-    <t>Pull-Start</t>
-  </si>
-  <si>
-    <t>Size-kVA:1.2, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>https://www.makro.co.za/sys-master/images/h06/h98/9800090222622/silo-MIN_237823_EAA_large</t>
-  </si>
-  <si>
-    <t>Key-Start</t>
-  </si>
-  <si>
-    <t>Size-kVA:3.5, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>https://www.builders.co.za/_ui/responsive/theme-yellow/images/products/product-image-transparent.png</t>
-  </si>
-  <si>
-    <t>Size-kVA:5.5, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>https://www.makro.co.za/sys-master/images/hc0/h4f/9800097300510/silo-MIN_159320_EAA_large</t>
-  </si>
-  <si>
-    <t>Size-kVA:7.5, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>https://www.makro.co.za/sys-master/images/hba/h86/9800090746910/silo-MIN_285367_EAA_large</t>
-  </si>
-  <si>
-    <t>Size-kVA:10, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>GenTech Industries</t>
-  </si>
-  <si>
-    <t>Size-kVA:3, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>https://3pmedia.leroymerlin.co.za/SOURCE/a424840859ea40f38d972c635c8539ec</t>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Geewiz</t>
+  </si>
+  <si>
+    <t>SingleCore-DC</t>
+  </si>
+  <si>
+    <t>Size-mm2:35, Length-m:1</t>
+  </si>
+  <si>
+    <t>Size-mm2:50, Length-m:1</t>
+  </si>
+  <si>
+    <t>Rack</t>
+  </si>
+  <si>
+    <t>Renusol</t>
+  </si>
+  <si>
+    <t>Mounting Rail</t>
+  </si>
+  <si>
+    <t>Length-m:2.1</t>
+  </si>
+  <si>
+    <t>SizeGroup:1,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>Length-m:4.2</t>
   </si>
   <si>
     <t>Talon</t>
@@ -220,205 +481,40 @@
     <t>Size-kVA:6, EngineSize-Stroke: 4</t>
   </si>
   <si>
-    <t>Size-kVA:7, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>https://3pmedia.leroymerlin.co.za/SOURCE/10f337c37a7845719d921542d1415339</t>
-  </si>
-  <si>
     <t>Size-kVA:4.5, EngineSize-Stroke: 4</t>
   </si>
   <si>
     <t>Size-kVA:6.4, EngineSize-Stroke: 4</t>
   </si>
   <si>
-    <t>Inverter</t>
-  </si>
-  <si>
-    <t>Inverters</t>
-  </si>
-  <si>
-    <t>Mecer</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
     <t>Size-kVA:1.5, Voltage-V:12, Power-kW:1.2</t>
   </si>
   <si>
-    <t>SizeGroup:3,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/BHDB8md/Mecer-1-2.png</t>
-  </si>
-  <si>
-    <t>Stand-alone</t>
+    <t>ds:[url.pdf,name]</t>
   </si>
   <si>
     <t>Size-kVA:3, Voltage-V:24, Power-kW:3</t>
   </si>
   <si>
-    <t>Size-kVA:5, Voltage-V:48, Power-kW:4</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/842wzpn/Mecer-5.png</t>
-  </si>
-  <si>
-    <t>RCT-AXPERT</t>
-  </si>
-  <si>
-    <t>Size-kVA:3, Voltage-V:48, Power-kW:3, MPPTVoltage-V:430</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/rvLf8JH/RCT-Axpert-3kv-A.png</t>
+    <t>tx:[message]</t>
+  </si>
+  <si>
+    <t>ds:[url.pdf,name];tx:[message]; img:url.[png,jpg,jpeg,gif]</t>
   </si>
   <si>
     <t>Size-kVA:5, Voltage-V:48, Power-kW:5, MPPTVoltage-V:115</t>
   </si>
   <si>
-    <t>https://i.ibb.co/fMKMdQL/RCT-Axpert-5kv-A.jpg</t>
+    <t>img:https://i.ibb.co/N2Basdasdasd-/Rentech-5-6.png</t>
   </si>
   <si>
     <t>Size-kVA:8, Voltage-V:48, Power-kW:8, MPPTVoltage-V:66</t>
   </si>
   <si>
-    <t>https://i.ibb.co/SV8mNPB/RCT-Axpert-8-Kkv-A.png</t>
-  </si>
-  <si>
-    <t>TheCoolGuys</t>
-  </si>
-  <si>
-    <t>Size-kVA:3, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:2.4, BatVoltage-V:24, MPPTVoltage-VDC:100</t>
-  </si>
-  <si>
-    <t>SizeGroup:6,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
-    <t>https://thecoolguys.co.za/wp-content/uploads/2022/03/3kva-1.png</t>
-  </si>
-  <si>
-    <t>Size-kVA:5, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5, BatVoltage-V:48, MPPTVoltage-VDC:115</t>
-  </si>
-  <si>
-    <t>Rentech-Axpert</t>
-  </si>
-  <si>
     <t>Size-kVA:1, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:1, BatVoltage-V:12, PWMCurrent-A:50</t>
   </si>
   <si>
-    <t>https://i.ibb.co/N2BqyKx/Rentech-5-6.png</t>
-  </si>
-  <si>
-    <t>Rentech-Jagular</t>
-  </si>
-  <si>
-    <t>Size-kVA:2.4, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:1.4, RecLABatVoltage-V:12</t>
-  </si>
-  <si>
-    <t>SizeGroup:5,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
     <t>Size-kVA:3, InputVoltage-AC:230, Power-kW:2.4, BatVoltage-V:24</t>
-  </si>
-  <si>
-    <t>Size-kVA:5,InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5, BatVoltage-V:48, MPPTCurrent-A:80</t>
-  </si>
-  <si>
-    <t>Size-kVA:5.6, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5.6, BatVoltage-V:48</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>CNBM</t>
-  </si>
-  <si>
-    <t>Polycrystalline</t>
-  </si>
-  <si>
-    <t>Voltage-V:37.5, Power-W:330, MaxPowerCurrent-A:8.89, OpenCircuitVoltage-V:47</t>
-  </si>
-  <si>
-    <t>Renewsys</t>
-  </si>
-  <si>
-    <t>Voltage-V:37.9, Power-W:335, MaxPowerCurrent-A:8.85, OpenCircuitVoltage-V:46.27</t>
-  </si>
-  <si>
-    <t>Canadian Solar</t>
-  </si>
-  <si>
-    <t>Monocrystalline</t>
-  </si>
-  <si>
-    <t>Voltage-V:33.9, Power-W:365, MaxPowerCurrent-A:10.78, OpenCircuitVoltage-V:40.6</t>
-  </si>
-  <si>
-    <t>JA Solar</t>
-  </si>
-  <si>
-    <t>Voltage-V:33.96, Power-W:365, MaxPowerCurrent-A:10.75, OpenCircuitVoltage-V:41.13</t>
-  </si>
-  <si>
-    <t>Axitec</t>
-  </si>
-  <si>
-    <t>Voltage-V:34.09, Power-W:370, MaxPowerCurrent-A:10.86, OpenCircuitVoltage-V:41.32</t>
-  </si>
-  <si>
-    <t>Voltage-V:34.09, Power-W:375, MaxPowerCurrent-A:10.94, OpenCircuitVoltage-V:41</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ImageUrl</t>
-  </si>
-  <si>
-    <t>Cable</t>
-  </si>
-  <si>
-    <t>Geewiz</t>
-  </si>
-  <si>
-    <t>SingleCore-DC</t>
-  </si>
-  <si>
-    <t>Size-mm2:35, Length-m:1</t>
-  </si>
-  <si>
-    <t>Size-mm2:50, Length-m:1</t>
-  </si>
-  <si>
-    <t>Rack</t>
-  </si>
-  <si>
-    <t>Renusol</t>
-  </si>
-  <si>
-    <t>Mounting Rail</t>
-  </si>
-  <si>
-    <t>Length-m:2.1</t>
-  </si>
-  <si>
-    <t>SizeGroup:1,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
-    <t>Length-m:4.2</t>
-  </si>
-  <si>
-    <t>ds:[url.pdf,name]</t>
-  </si>
-  <si>
-    <t>tx:[message]</t>
-  </si>
-  <si>
-    <t>ds:[url.pdf,name];tx:[message]; img:url.[png,jpg,jpeg,gif]</t>
-  </si>
-  <si>
-    <t>img:https://i.ibb.co/N2Basdasdasd-/Rentech-5-6.png</t>
   </si>
   <si>
     <t>Solars</t>
@@ -514,7 +610,7 @@
     <numFmt numFmtId="165" formatCode="_-[$R-1C09]* #,##0_-;\-[$R-1C09]* #,##0_-;_-[$R-1C09]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$R-1C09]* #,##0.00_-;\-[$R-1C09]* #,##0.00_-;_-[$R-1C09]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,27 +643,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -646,7 +721,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -663,10 +738,9 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -989,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1004,10 +1078,11 @@
     <col min="5" max="5" width="83" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.42578125" customWidth="1"/>
-    <col min="8" max="8" width="97.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,1383 +1104,986 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13">
+        <f>RBCPriceGenerator!B10</f>
+        <v>26444.249999999996</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13">
+        <f>RBCPriceGenerator!B9</f>
+        <v>21755.699999999997</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13">
-        <f>RBCPriceGenerator!B5</f>
-        <v>11253.9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="13">
+        <f>RBCPriceGenerator!B8</f>
+        <v>20895.5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="13">
-        <f>RBCPriceGenerator!B6</f>
-        <v>8044.2499999999991</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13">
         <f>RBCPriceGenerator!B7</f>
         <v>13549.3</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="13">
+        <f>RBCPriceGenerator!B14</f>
+        <v>3433.8999999999996</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="13">
+        <f>RBCPriceGenerator!B13</f>
+        <v>2587.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="13">
+        <f>RBCPriceGenerator!B18</f>
+        <v>3633.9999999999995</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="13">
+        <f>RBCPriceGenerator!B17</f>
+        <v>3217.7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="13">
+        <f>RBCPriceGenerator!B16</f>
+        <v>3653.5499999999997</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="13">
+        <f>RBCPriceGenerator!B15</f>
+        <v>3759.35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13">
-        <f>RBCPriceGenerator!B8</f>
-        <v>20895.5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="9">
+        <f>RBCPriceGenerator!B53</f>
+        <v>18975</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="13">
-        <f>RBCPriceGenerator!B9</f>
-        <v>21755.699999999997</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13">
-        <f>RBCPriceGenerator!B10</f>
-        <v>26444.249999999996</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="13">
-        <f>RBCPriceGenerator!B11</f>
-        <v>3859.3999999999996</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="13">
-        <f>RBCPriceGenerator!B12</f>
-        <v>2999.2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4">
-        <f>RBCPriceGenerator!B37</f>
-        <v>19836.349999999999</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4">
-        <f>RBCPriceGenerator!B38</f>
-        <v>30151.85</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="4">
-        <f>RBCPriceGenerator!B39</f>
-        <v>3460.35</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="4">
-        <f>RBCPriceGenerator!B40</f>
-        <v>6346.8499999999995</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1">
-      <c r="A14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="9">
         <f>RBCPriceGenerator!B52</f>
         <v>8038.4999999999991</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1">
-      <c r="A15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="9">
-        <f>RBCPriceGenerator!B53</f>
-        <v>18975</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="H13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="13">
+        <f>RBCPriceGenerator!B26</f>
+        <v>14949.999999999998</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="13">
+        <f>RBCPriceGenerator!B30</f>
+        <v>27599.999999999996</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1">
+      <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="9">
+        <f>RBCPriceGenerator!B51</f>
+        <v>17480</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="13">
+        <f>RBCPriceGenerator!B25</f>
+        <v>13799.999999999998</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1">
+      <c r="A18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="9">
+        <f>RBCPriceGenerator!B50</f>
+        <v>15746.949999999999</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="13">
+        <f>RBCPriceGenerator!B4</f>
+        <v>12822.499999999998</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1">
+      <c r="A20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7">
+        <f>RBCPriceGenerator!B42</f>
+        <v>16099.999999999998</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="13">
+        <f>RBCPriceGenerator!B24</f>
+        <v>8049.9999999999991</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="4">
+        <f>RBCPriceGenerator!B34</f>
+        <v>10471.9</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1">
-      <c r="A16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="9">
-        <f>RBCPriceGenerator!B54</f>
-        <v>26444.249999999996</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="H22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="15" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7">
+        <f>RBCPriceGenerator!B41</f>
+        <v>8625</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="13">
+        <f>RBCPriceGenerator!B28</f>
+        <v>17250</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1">
+      <c r="A25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="9">
+        <f>RBCPriceGenerator!B48</f>
+        <v>4401.0499999999993</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="13">
+        <f>RBCPriceGenerator!B27</f>
+        <v>65686.849999999991</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="13">
         <f>RBCPriceGenerator!B23</f>
         <v>5175</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="13">
-        <f>RBCPriceGenerator!B24</f>
-        <v>8049.9999999999991</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="13">
-        <f>RBCPriceGenerator!B25</f>
-        <v>13799.999999999998</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="13">
-        <f>RBCPriceGenerator!B26</f>
-        <v>14949.999999999998</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="13">
-        <f>RBCPriceGenerator!B27</f>
-        <v>24149.999999999996</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="13">
-        <f>RBCPriceGenerator!B28</f>
-        <v>17250</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="13">
-        <f>RBCPriceGenerator!B29</f>
-        <v>27706.949999999997</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="13">
-        <f>RBCPriceGenerator!B30</f>
-        <v>25299.999999999996</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="13">
-        <f>RBCPriceGenerator!B31</f>
-        <v>32996.949999999997</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="13">
-        <f>RBCPriceGenerator!B32</f>
-        <v>34500</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="13">
-        <f>RBCPriceGenerator!B33</f>
-        <v>41400</v>
-      </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="13">
-        <f>RBCPriceGenerator!B2</f>
-        <v>4357.3499999999995</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="13">
-        <f>RBCPriceGenerator!B3</f>
-        <v>6899.9999999999991</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="15">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="13">
-        <f>RBCPriceGenerator!B4</f>
-        <v>12822.499999999998</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15">
-      <c r="A31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="4">
-        <f>RBCPriceGenerator!B34</f>
-        <v>10471.9</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="4">
-        <f>RBCPriceGenerator!B35</f>
-        <v>15234.05</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15">
-      <c r="A33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="4">
-        <f>RBCPriceGenerator!B36</f>
-        <v>41260.85</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15">
-      <c r="A34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="7">
-        <f>RBCPriceGenerator!B41</f>
-        <v>8625</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15">
-      <c r="A35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="7">
-        <f>RBCPriceGenerator!B42</f>
-        <v>16099.999999999998</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15">
-      <c r="A36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="9">
-        <f>RBCPriceGenerator!B47</f>
-        <v>4038.7999999999997</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15">
-      <c r="A37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="9">
-        <f>RBCPriceGenerator!B48</f>
-        <v>4401.0499999999993</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15">
-      <c r="A38" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="9">
-        <f>RBCPriceGenerator!B49</f>
-        <v>7796.9999999999991</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15">
-      <c r="A39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="9">
-        <f>RBCPriceGenerator!B50</f>
-        <v>15746.949999999999</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15">
-      <c r="A40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="9">
-        <f>RBCPriceGenerator!B51</f>
-        <v>17480</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
-      <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="13">
-        <f>RBCPriceGenerator!B13</f>
-        <v>2587.5</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="13">
-        <f>RBCPriceGenerator!B14</f>
-        <v>3433.8999999999996</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1">
-      <c r="A43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="13">
-        <f>RBCPriceGenerator!B15</f>
-        <v>3759.35</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1">
-      <c r="A44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="13">
-        <f>RBCPriceGenerator!B16</f>
-        <v>3653.5499999999997</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="13">
-        <f>RBCPriceGenerator!B17</f>
-        <v>3217.7</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1">
-      <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="13">
-        <f>RBCPriceGenerator!B18</f>
-        <v>3633.9999999999995</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46"/>
-    </row>
-    <row r="49" spans="6:6" ht="15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="6:13">
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="6:6" ht="15">
+    <row r="50" spans="6:13">
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="6:6" ht="15">
+    <row r="51" spans="6:13">
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="6:6" ht="15">
+    <row r="52" spans="6:13">
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="6:6" ht="15">
+    <row r="53" spans="6:13">
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="6:6" ht="15">
+    <row r="54" spans="6:13">
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="6:6" ht="15">
+    <row r="55" spans="6:13">
       <c r="F55" s="15"/>
-    </row>
-    <row r="56" spans="6:6" ht="15">
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="6:13">
       <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="6:6" ht="15">
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="6:13">
       <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="6:6" ht="15">
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" spans="6:13">
       <c r="F58" s="15"/>
-    </row>
-    <row r="59" spans="6:6" ht="15">
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="6:13">
       <c r="F59" s="15"/>
-    </row>
-    <row r="60" spans="6:6" ht="15">
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="6:13">
       <c r="F60" s="15"/>
-    </row>
-    <row r="61" spans="6:6" ht="15">
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="6:13">
       <c r="F61" s="15"/>
-    </row>
-    <row r="62" spans="6:6" ht="15">
+      <c r="M61" s="15"/>
+    </row>
+    <row r="62" spans="6:13">
       <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="6:6" ht="15">
-      <c r="F63" s="15"/>
-    </row>
-    <row r="64" spans="6:6" ht="15">
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" spans="6:13" ht="15">
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="6:13" ht="15">
+      <c r="M62" s="15"/>
+    </row>
+    <row r="63" spans="6:13">
+      <c r="M63" s="15"/>
+    </row>
+    <row r="64" spans="6:13">
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="6:13">
+      <c r="M65" s="15"/>
+    </row>
+    <row r="66" spans="6:13">
       <c r="F66" s="15"/>
-    </row>
-    <row r="67" spans="6:13" ht="15">
+      <c r="M66" s="15"/>
+    </row>
+    <row r="67" spans="6:13">
       <c r="F67" s="15"/>
-    </row>
-    <row r="68" spans="6:13" ht="15">
+      <c r="M67" s="15"/>
+    </row>
+    <row r="68" spans="6:13">
       <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="6:13" ht="15">
+      <c r="M68" s="15"/>
+    </row>
+    <row r="69" spans="6:13">
       <c r="F69" s="15"/>
-    </row>
-    <row r="70" spans="6:13" ht="15">
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="6:13" ht="15">
-      <c r="F71" s="15"/>
-    </row>
-    <row r="72" spans="6:13" ht="15">
-      <c r="F72" s="15"/>
-    </row>
-    <row r="73" spans="6:13" ht="15">
-      <c r="F73" s="15"/>
-    </row>
-    <row r="74" spans="6:13" ht="15">
-      <c r="F74" s="15"/>
+      <c r="M69" s="15"/>
+    </row>
+    <row r="70" spans="6:13">
+      <c r="M70" s="15"/>
+    </row>
+    <row r="71" spans="6:13">
+      <c r="M71" s="15"/>
+    </row>
+    <row r="72" spans="6:13">
+      <c r="M72" s="15"/>
+    </row>
+    <row r="73" spans="6:13">
+      <c r="M73" s="15"/>
+    </row>
+    <row r="74" spans="6:13">
       <c r="M74" s="15"/>
     </row>
-    <row r="75" spans="6:13" ht="15">
-      <c r="F75" s="15"/>
+    <row r="75" spans="6:13">
       <c r="M75" s="15"/>
     </row>
-    <row r="76" spans="6:13" ht="15">
-      <c r="F76" s="15"/>
+    <row r="76" spans="6:13">
       <c r="M76" s="15"/>
     </row>
-    <row r="77" spans="6:13" ht="15">
-      <c r="F77" s="15"/>
+    <row r="77" spans="6:13">
       <c r="M77" s="15"/>
     </row>
-    <row r="78" spans="6:13" ht="15">
-      <c r="F78" s="15"/>
+    <row r="78" spans="6:13">
       <c r="M78" s="15"/>
     </row>
-    <row r="79" spans="6:13" ht="15">
-      <c r="F79" s="15"/>
+    <row r="79" spans="6:13">
       <c r="M79" s="15"/>
     </row>
-    <row r="80" spans="6:13" ht="15">
-      <c r="F80" s="15"/>
+    <row r="80" spans="6:13">
       <c r="M80" s="15"/>
     </row>
-    <row r="81" spans="6:13" ht="15">
-      <c r="F81" s="15"/>
+    <row r="81" spans="13:13">
       <c r="M81" s="15"/>
     </row>
-    <row r="82" spans="6:13" ht="15">
+    <row r="82" spans="13:13">
       <c r="M82" s="15"/>
     </row>
-    <row r="83" spans="6:13" ht="15">
+    <row r="83" spans="13:13">
       <c r="M83" s="15"/>
     </row>
-    <row r="84" spans="6:13" ht="15">
+    <row r="84" spans="13:13">
       <c r="M84" s="15"/>
     </row>
-    <row r="85" spans="6:13" ht="15">
-      <c r="F85" s="15"/>
+    <row r="85" spans="13:13">
       <c r="M85" s="15"/>
     </row>
-    <row r="86" spans="6:13" ht="15">
-      <c r="F86" s="15"/>
+    <row r="86" spans="13:13">
       <c r="M86" s="15"/>
     </row>
-    <row r="87" spans="6:13" ht="15">
-      <c r="F87" s="15"/>
+    <row r="87" spans="13:13">
       <c r="M87" s="15"/>
     </row>
-    <row r="88" spans="6:13" ht="15">
-      <c r="F88" s="15"/>
-      <c r="M88" s="15"/>
-    </row>
-    <row r="89" spans="6:13" ht="15">
-      <c r="M89" s="15"/>
-    </row>
-    <row r="90" spans="6:13" ht="15">
-      <c r="M90" s="15"/>
-    </row>
-    <row r="91" spans="6:13" ht="15">
+    <row r="91" spans="13:13">
       <c r="M91" s="15"/>
     </row>
-    <row r="92" spans="6:13" ht="15">
+    <row r="92" spans="13:13">
       <c r="M92" s="15"/>
     </row>
-    <row r="93" spans="6:13" ht="15">
+    <row r="93" spans="13:13">
       <c r="M93" s="15"/>
     </row>
-    <row r="94" spans="6:13" ht="15">
+    <row r="94" spans="13:13">
       <c r="M94" s="15"/>
     </row>
-    <row r="95" spans="6:13" ht="15">
-      <c r="M95" s="15"/>
-    </row>
-    <row r="96" spans="6:13" ht="15">
-      <c r="M96" s="15"/>
-    </row>
-    <row r="97" spans="13:13" ht="15">
-      <c r="M97" s="15"/>
-    </row>
-    <row r="98" spans="13:13" ht="15">
-      <c r="M98" s="15"/>
-    </row>
-    <row r="99" spans="13:13" ht="15">
-      <c r="M99" s="15"/>
-    </row>
-    <row r="100" spans="13:13" ht="15">
-      <c r="M100" s="15"/>
-    </row>
-    <row r="101" spans="13:13" ht="15">
-      <c r="M101" s="15"/>
-    </row>
-    <row r="102" spans="13:13" ht="15">
-      <c r="M102" s="15"/>
-    </row>
-    <row r="103" spans="13:13" ht="15">
-      <c r="M103" s="15"/>
-    </row>
-    <row r="104" spans="13:13" ht="15">
-      <c r="M104" s="15"/>
-    </row>
-    <row r="105" spans="13:13" ht="15">
-      <c r="M105" s="15"/>
-    </row>
-    <row r="106" spans="13:13" ht="15">
-      <c r="M106" s="15"/>
-    </row>
-    <row r="110" spans="13:13" ht="15">
-      <c r="M110" s="15"/>
-    </row>
-    <row r="111" spans="13:13" ht="15">
-      <c r="M111" s="15"/>
-    </row>
-    <row r="112" spans="13:13" ht="15">
-      <c r="M112" s="15"/>
-    </row>
-    <row r="113" spans="13:13" ht="15">
-      <c r="M113" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G46" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}"/>
+  <autoFilter ref="A1:G27" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
+    <sortCondition descending="1" ref="E14:E27"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H37" r:id="rId1" xr:uid="{5AC0C6E4-66C8-46E6-80A8-12658489C699}"/>
-    <hyperlink ref="H38:H40" r:id="rId2" display="https://i.ibb.co/N2BqyKx/Rentech-5-6.png" xr:uid="{0AE3E508-AADC-4871-B8E8-A8BE2D77B813}"/>
-    <hyperlink ref="H34" r:id="rId3" xr:uid="{7E430A18-0B09-47BD-8436-95CDF5D784DB}"/>
-    <hyperlink ref="H35" r:id="rId4" xr:uid="{A68A78BA-2918-4268-9449-0F7F842D2D78}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{CA126EF1-9BE6-48B2-AD23-95923090A00D}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{52748133-60D7-4085-8A2B-F47A5084AE82}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{C39F7D00-D3EC-4E80-B6DF-FF1AC8554BF2}"/>
+    <hyperlink ref="I13" r:id="rId4" xr:uid="{51126B01-EF82-4D3A-A8AC-4C6EDBFD4FA4}"/>
+    <hyperlink ref="H16" r:id="rId5" xr:uid="{64525F2D-8BC7-48E6-883B-74C1E1705D7B}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{B6E103EA-A26F-4CAE-9611-5E071D398B4B}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{DF7F894D-0311-4E90-BE0A-95CB041C6CAB}"/>
+    <hyperlink ref="H26" r:id="rId8" xr:uid="{7809E0D1-332D-4695-8F3F-ECD6F949564D}"/>
+    <hyperlink ref="H24" r:id="rId9" xr:uid="{D3705807-FC18-484E-B2E9-5B159925D2B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2416,7 +2094,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E67" sqref="A65:E67"/>
     </sheetView>
   </sheetViews>
@@ -2427,13 +2105,13 @@
     <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="114.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2453,243 +2131,243 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F2" s="13">
         <f>RBCPriceGenerator!B5</f>
         <v>11253.9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="F3" s="13">
         <f>RBCPriceGenerator!B6</f>
         <v>8044.2499999999991</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="13">
         <f>RBCPriceGenerator!B7</f>
         <v>13549.3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="13">
         <f>RBCPriceGenerator!B8</f>
         <v>20895.5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="13">
         <f>RBCPriceGenerator!B9</f>
         <v>21755.699999999997</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F7" s="13">
         <f>RBCPriceGenerator!B10</f>
         <v>26444.249999999996</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="F8" s="13">
         <f>RBCPriceGenerator!B11</f>
         <v>3859.3999999999996</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="F9" s="13">
         <f>RBCPriceGenerator!B12</f>
         <v>2999.2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4">
         <f>RBCPriceGenerator!B37</f>
         <v>19836.349999999999</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="F11" s="4">
         <f>RBCPriceGenerator!B38</f>
@@ -2701,67 +2379,67 @@
     </row>
     <row r="12" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="F12" s="4">
         <f>RBCPriceGenerator!B39</f>
         <v>3460.35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="F13" s="4">
         <f>RBCPriceGenerator!B40</f>
         <v>6346.8499999999995</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A14" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F14" s="9">
         <f>RBCPriceGenerator!B52</f>
@@ -2773,19 +2451,19 @@
     </row>
     <row r="15" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F15" s="9">
         <f>RBCPriceGenerator!B53</f>
@@ -2797,19 +2475,19 @@
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A16" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="F16" s="9">
         <f>RBCPriceGenerator!B54</f>
@@ -2821,460 +2499,460 @@
     </row>
     <row r="17" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F17" s="13">
         <f>RBCPriceGenerator!B23</f>
         <v>5175</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F18" s="13">
         <f>RBCPriceGenerator!B24</f>
         <v>8049.9999999999991</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F19" s="13">
         <f>RBCPriceGenerator!B19</f>
         <v>169.04999999999998</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F20" s="13">
         <f>RBCPriceGenerator!B20</f>
         <v>254.14999999999998</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F21" s="13">
         <f>RBCPriceGenerator!B21</f>
         <v>362.25</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="F22" s="13">
         <f>RBCPriceGenerator!B22</f>
         <v>675.05</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F23" s="13">
         <f>RBCPriceGenerator!B25</f>
         <v>13799.999999999998</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F24" s="13">
         <f>RBCPriceGenerator!B26</f>
         <v>14949.999999999998</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F25" s="13">
         <f>RBCPriceGenerator!B27</f>
-        <v>24149.999999999996</v>
+        <v>65686.849999999991</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F26" s="13">
         <f>RBCPriceGenerator!B28</f>
         <v>17250</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="F27" s="13">
         <f>RBCPriceGenerator!B29</f>
         <v>27706.949999999997</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F28" s="13">
         <f>RBCPriceGenerator!B30</f>
-        <v>25299.999999999996</v>
+        <v>27599.999999999996</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F29" s="13">
         <f>RBCPriceGenerator!B31</f>
         <v>32996.949999999997</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="F30" s="13">
         <f>RBCPriceGenerator!B32</f>
         <v>34500</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="F31" s="13">
         <f>RBCPriceGenerator!B33</f>
         <v>41400</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="F32" s="13">
         <f>RBCPriceGenerator!B2</f>
         <v>4357.3499999999995</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" hidden="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="F33" s="13">
         <f>RBCPriceGenerator!B3</f>
         <v>6899.9999999999991</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="15" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" hidden="1">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F34" s="13">
         <f>RBCPriceGenerator!B4</f>
         <v>12822.499999999998</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" hidden="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F35" s="4">
         <f>RBCPriceGenerator!B34</f>
@@ -3284,21 +2962,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" hidden="1">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="F36" s="4">
         <f>RBCPriceGenerator!B35</f>
@@ -3308,24 +2986,24 @@
         <v>31</v>
       </c>
       <c r="I36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" hidden="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F37" s="4">
         <f>RBCPriceGenerator!B36</f>
@@ -3335,117 +3013,117 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" hidden="1">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F38" s="7">
         <f>RBCPriceGenerator!B41</f>
         <v>8625</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" hidden="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F39" s="7">
         <f>RBCPriceGenerator!B42</f>
         <v>16099.999999999998</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" hidden="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="F40" s="9">
         <f>RBCPriceGenerator!B47</f>
         <v>4038.7999999999997</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" hidden="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F41" s="9">
         <f>RBCPriceGenerator!B48</f>
         <v>4401.0499999999993</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="F42" s="9">
         <f>RBCPriceGenerator!B49</f>
@@ -3455,69 +3133,69 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" hidden="1">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F43" s="9">
         <f>RBCPriceGenerator!B50</f>
         <v>15746.949999999999</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" hidden="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F44" s="9">
         <f>RBCPriceGenerator!B51</f>
         <v>17480</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="F45" s="13">
         <f>RBCPriceGenerator!B13</f>
@@ -3529,19 +3207,19 @@
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F46" s="13">
         <f>RBCPriceGenerator!B14</f>
@@ -3553,19 +3231,19 @@
     </row>
     <row r="47" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="F47" s="13">
         <f>RBCPriceGenerator!B15</f>
@@ -3577,19 +3255,19 @@
     </row>
     <row r="48" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F48" s="13">
         <f>RBCPriceGenerator!B16</f>
@@ -3601,19 +3279,19 @@
     </row>
     <row r="49" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="F49" s="13">
         <f>RBCPriceGenerator!B17</f>
@@ -3625,19 +3303,19 @@
     </row>
     <row r="50" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="F50" s="13">
         <f>RBCPriceGenerator!B18</f>
@@ -3649,79 +3327,79 @@
     </row>
     <row r="51" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A51" s="10" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F51" s="2">
         <f>RBCPriceGenerator!B67</f>
         <v>35255.549999999996</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A52" s="10" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="F52" s="2">
         <f>RBCPriceGenerator!B68</f>
         <v>44369.299999999996</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A53" s="10" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="F53" s="2">
         <f>RBCPriceGenerator!B69</f>
         <v>45158.2</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="C54" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="F54" s="11">
         <f>RBCPriceGenerator!B74</f>
@@ -3746,7 +3424,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15"/>
     <row r="60" spans="1:7">
       <c r="A60" t="str">
         <f>A$35</f>
@@ -3773,7 +3450,7 @@
         <v>10471.9</v>
       </c>
       <c r="G60" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3802,7 +3479,7 @@
         <v>13549.3</v>
       </c>
       <c r="G61" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3831,7 +3508,7 @@
         <v>15525</v>
       </c>
       <c r="G62" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3869,7 +3546,7 @@
         <v>10471.9</v>
       </c>
       <c r="G65" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3898,7 +3575,7 @@
         <v>27098.6</v>
       </c>
       <c r="G66" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3927,7 +3604,7 @@
         <v>20700</v>
       </c>
       <c r="G67" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3965,7 +3642,7 @@
         <v>15234.05</v>
       </c>
       <c r="G70" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3994,7 +3671,7 @@
         <v>26444.249999999996</v>
       </c>
       <c r="G71" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4023,7 +3700,7 @@
         <v>29071.999999999996</v>
       </c>
       <c r="G72" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4064,7 +3741,7 @@
         <v>15234.05</v>
       </c>
       <c r="G76" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4093,7 +3770,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G77" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4122,7 +3799,7 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G78" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4163,7 +3840,7 @@
         <v>41260.85</v>
       </c>
       <c r="G82" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4192,7 +3869,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G83" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4221,7 +3898,7 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G84" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4254,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4284,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4314,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4350,7 +4027,7 @@
         <v>41260.85</v>
       </c>
       <c r="G89" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M89" s="15"/>
     </row>
@@ -4380,7 +4057,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G90" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="H90">
         <f t="shared" ref="H90:I90" si="23">H$35</f>
@@ -4407,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4436,7 +4113,7 @@
         <v>43607.999999999993</v>
       </c>
       <c r="G91" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="H91">
         <f>H$4</f>
@@ -4463,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4496,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4534,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4563,7 +4240,7 @@
         <v>41260.85</v>
       </c>
       <c r="G96" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H96">
         <f t="shared" ref="H96:K96" si="30">H$7</f>
@@ -4590,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4619,7 +4296,7 @@
         <v>79332.749999999985</v>
       </c>
       <c r="G97" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="H97">
         <f t="shared" ref="H97:K97" si="32">H$50</f>
@@ -4646,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4675,7 +4352,7 @@
         <v>50875.999999999993</v>
       </c>
       <c r="G98" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="M98" s="15">
         <f>SUBTOTAL(9,M95:M97)</f>
@@ -4718,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4747,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4776,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4817,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4846,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -4875,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -4919,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="8:14">
@@ -4948,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="8:14">
@@ -4977,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="8:14">
@@ -5012,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="8:14">
@@ -5041,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="8:14">
@@ -5070,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="8:14">
@@ -5103,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02EAAD8-D566-4024-B845-4CB318AE8481}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -5370,12 +5047,12 @@
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1">
       <c r="A27" s="14">
-        <f>21000</f>
-        <v>21000</v>
+        <f>57119</f>
+        <v>57119</v>
       </c>
       <c r="B27" s="12">
         <f t="shared" si="0"/>
-        <v>24149.999999999996</v>
+        <v>65686.849999999991</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5398,11 +5075,11 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="B30" s="12">
         <f t="shared" si="0"/>
-        <v>25299.999999999996</v>
+        <v>27599.999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1">
@@ -5840,6 +5517,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100583804D756D08E4CA3423200232226B2" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3af61a159263512a7f1ce494a3d6b52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38594f89-c314-49a7-8895-5d17cbb3f834" xmlns:ns3="c062e488-6187-499b-9180-094274b6916e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e65e6323747ef5a712f1b4f0f665253a" ns2:_="" ns3:_="">
     <xsd:import namespace="38594f89-c314-49a7-8895-5d17cbb3f834"/>
@@ -6082,19 +5768,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4D44B-BA28-4ECE-9D28-DB5214D251D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FDEAF2-72F6-4DE3-BA2B-74A9F9809E88}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FDEAF2-72F6-4DE3-BA2B-74A9F9809E88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4D44B-BA28-4ECE-9D28-DB5214D251D2}"/>
 </file>